--- a/Notes/Performance.xlsx
+++ b/Notes/Performance.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\access-entity-scd-db\Notes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A82D1F6F-BE4E-4215-B758-0BCCDC43E33C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F7C4C0F-87EC-4866-AEA6-ACD96A297D2E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="7">
   <si>
     <t>LoadEntityTypes</t>
   </si>
@@ -380,10 +380,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:K16"/>
+  <dimension ref="A2:K35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K10" sqref="K10:K15"/>
+      <selection activeCell="H21" sqref="H21:H27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -780,6 +780,395 @@
         <v>0.96158853333333338</v>
       </c>
     </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>6</v>
+      </c>
+      <c r="C21">
+        <v>0.265625</v>
+      </c>
+      <c r="D21">
+        <v>0.2109375</v>
+      </c>
+      <c r="E21">
+        <v>0.2578125</v>
+      </c>
+      <c r="F21">
+        <v>-0.2265625</v>
+      </c>
+      <c r="G21">
+        <v>-0.2421875</v>
+      </c>
+      <c r="H21">
+        <v>0.2890625</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>0</v>
+      </c>
+      <c r="C22">
+        <v>0.265625</v>
+      </c>
+      <c r="D22">
+        <v>0.21875</v>
+      </c>
+      <c r="E22">
+        <v>0.265625</v>
+      </c>
+      <c r="F22">
+        <v>-0.21875</v>
+      </c>
+      <c r="G22">
+        <v>-0.234375</v>
+      </c>
+      <c r="H22">
+        <v>0.2890625</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>1</v>
+      </c>
+      <c r="C23">
+        <v>0.34375</v>
+      </c>
+      <c r="D23">
+        <v>0.3125</v>
+      </c>
+      <c r="E23">
+        <v>0.359375</v>
+      </c>
+      <c r="F23">
+        <v>-0.15625</v>
+      </c>
+      <c r="G23">
+        <v>-0.140625</v>
+      </c>
+      <c r="H23">
+        <v>0.3828125</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>2</v>
+      </c>
+      <c r="C24">
+        <v>0.359375</v>
+      </c>
+      <c r="D24">
+        <v>0.3125</v>
+      </c>
+      <c r="E24">
+        <v>0.375</v>
+      </c>
+      <c r="F24">
+        <v>-0.140625</v>
+      </c>
+      <c r="G24">
+        <v>-0.125</v>
+      </c>
+      <c r="H24">
+        <v>0.3984375</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>3</v>
+      </c>
+      <c r="C25">
+        <v>0.359375</v>
+      </c>
+      <c r="D25">
+        <v>0.328125</v>
+      </c>
+      <c r="E25">
+        <v>0.390625</v>
+      </c>
+      <c r="F25">
+        <v>-0.125</v>
+      </c>
+      <c r="G25">
+        <v>-0.109375</v>
+      </c>
+      <c r="H25">
+        <v>0.4140625</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>4</v>
+      </c>
+      <c r="C26">
+        <v>0.390625</v>
+      </c>
+      <c r="D26">
+        <v>0.359375</v>
+      </c>
+      <c r="E26">
+        <v>0.421875</v>
+      </c>
+      <c r="F26">
+        <v>-9.375E-2</v>
+      </c>
+      <c r="G26">
+        <v>-9.375E-2</v>
+      </c>
+      <c r="H26">
+        <v>0.4453125</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>5</v>
+      </c>
+      <c r="C27">
+        <v>0.453125</v>
+      </c>
+      <c r="D27">
+        <v>0.421875</v>
+      </c>
+      <c r="E27">
+        <v>0.484375</v>
+      </c>
+      <c r="F27">
+        <v>-3.125E-2</v>
+      </c>
+      <c r="G27">
+        <v>-1.5625E-2</v>
+      </c>
+      <c r="H27">
+        <v>0.5078125</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>0</v>
+      </c>
+      <c r="C29">
+        <f>C22-C21</f>
+        <v>0</v>
+      </c>
+      <c r="D29">
+        <f>D22-D21</f>
+        <v>7.8125E-3</v>
+      </c>
+      <c r="E29">
+        <f>E22-E21</f>
+        <v>7.8125E-3</v>
+      </c>
+      <c r="F29">
+        <f t="shared" ref="F29:H29" si="9">F22-F21</f>
+        <v>7.8125E-3</v>
+      </c>
+      <c r="G29">
+        <f t="shared" si="9"/>
+        <v>7.8125E-3</v>
+      </c>
+      <c r="H29">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="J29">
+        <f>AVERAGE(C29:H29)</f>
+        <v>5.208333333333333E-3</v>
+      </c>
+      <c r="K29" s="1">
+        <f>J29/$J$16</f>
+        <v>5.4163846102435491E-3</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>1</v>
+      </c>
+      <c r="C30">
+        <f t="shared" ref="C30:H30" si="10">C23-C22</f>
+        <v>7.8125E-2</v>
+      </c>
+      <c r="D30">
+        <f t="shared" si="10"/>
+        <v>9.375E-2</v>
+      </c>
+      <c r="E30">
+        <f t="shared" si="10"/>
+        <v>9.375E-2</v>
+      </c>
+      <c r="F30">
+        <f t="shared" si="10"/>
+        <v>6.25E-2</v>
+      </c>
+      <c r="G30">
+        <f t="shared" si="10"/>
+        <v>9.375E-2</v>
+      </c>
+      <c r="H30">
+        <f t="shared" si="10"/>
+        <v>9.375E-2</v>
+      </c>
+      <c r="J30">
+        <f t="shared" ref="J30:J34" si="11">AVERAGE(C30:H30)</f>
+        <v>8.59375E-2</v>
+      </c>
+      <c r="K30" s="1">
+        <f t="shared" ref="K30:K34" si="12">J30/$J$16</f>
+        <v>8.9370346069018572E-2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>2</v>
+      </c>
+      <c r="C31">
+        <f t="shared" ref="C31:H31" si="13">C24-C23</f>
+        <v>1.5625E-2</v>
+      </c>
+      <c r="D31">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="E31">
+        <f t="shared" si="13"/>
+        <v>1.5625E-2</v>
+      </c>
+      <c r="F31">
+        <f t="shared" si="13"/>
+        <v>1.5625E-2</v>
+      </c>
+      <c r="G31">
+        <f t="shared" si="13"/>
+        <v>1.5625E-2</v>
+      </c>
+      <c r="H31">
+        <f t="shared" si="13"/>
+        <v>1.5625E-2</v>
+      </c>
+      <c r="J31">
+        <f t="shared" si="11"/>
+        <v>1.3020833333333334E-2</v>
+      </c>
+      <c r="K31" s="1">
+        <f t="shared" si="12"/>
+        <v>1.3540961525608875E-2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>3</v>
+      </c>
+      <c r="C32">
+        <f t="shared" ref="C32:H32" si="14">C25-C24</f>
+        <v>0</v>
+      </c>
+      <c r="D32">
+        <f t="shared" si="14"/>
+        <v>1.5625E-2</v>
+      </c>
+      <c r="E32">
+        <f t="shared" si="14"/>
+        <v>1.5625E-2</v>
+      </c>
+      <c r="F32">
+        <f t="shared" si="14"/>
+        <v>1.5625E-2</v>
+      </c>
+      <c r="G32">
+        <f t="shared" si="14"/>
+        <v>1.5625E-2</v>
+      </c>
+      <c r="H32">
+        <f t="shared" si="14"/>
+        <v>1.5625E-2</v>
+      </c>
+      <c r="J32">
+        <f t="shared" si="11"/>
+        <v>1.3020833333333334E-2</v>
+      </c>
+      <c r="K32" s="1">
+        <f t="shared" si="12"/>
+        <v>1.3540961525608875E-2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>4</v>
+      </c>
+      <c r="C33">
+        <f t="shared" ref="C33:H33" si="15">C26-C25</f>
+        <v>3.125E-2</v>
+      </c>
+      <c r="D33">
+        <f t="shared" si="15"/>
+        <v>3.125E-2</v>
+      </c>
+      <c r="E33">
+        <f t="shared" si="15"/>
+        <v>3.125E-2</v>
+      </c>
+      <c r="F33">
+        <f t="shared" si="15"/>
+        <v>3.125E-2</v>
+      </c>
+      <c r="G33">
+        <f t="shared" si="15"/>
+        <v>1.5625E-2</v>
+      </c>
+      <c r="H33">
+        <f t="shared" si="15"/>
+        <v>3.125E-2</v>
+      </c>
+      <c r="J33">
+        <f t="shared" si="11"/>
+        <v>2.8645833333333332E-2</v>
+      </c>
+      <c r="K33" s="1">
+        <f t="shared" si="12"/>
+        <v>2.9790115356339519E-2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>5</v>
+      </c>
+      <c r="C34">
+        <f t="shared" ref="C34:H34" si="16">C27-C26</f>
+        <v>6.25E-2</v>
+      </c>
+      <c r="D34">
+        <f t="shared" si="16"/>
+        <v>6.25E-2</v>
+      </c>
+      <c r="E34">
+        <f t="shared" si="16"/>
+        <v>6.25E-2</v>
+      </c>
+      <c r="F34">
+        <f t="shared" si="16"/>
+        <v>6.25E-2</v>
+      </c>
+      <c r="G34">
+        <f t="shared" si="16"/>
+        <v>7.8125E-2</v>
+      </c>
+      <c r="H34">
+        <f t="shared" si="16"/>
+        <v>6.25E-2</v>
+      </c>
+      <c r="J34">
+        <f t="shared" si="11"/>
+        <v>6.5104166666666671E-2</v>
+      </c>
+      <c r="K34" s="1">
+        <f t="shared" si="12"/>
+        <v>6.7704807628044372E-2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J35">
+        <f>SUM(J29:J34)</f>
+        <v>0.2109375</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Notes/Performance.xlsx
+++ b/Notes/Performance.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\access-entity-scd-db\Notes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F7C4C0F-87EC-4866-AEA6-ACD96A297D2E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DE3AA4E-E92E-40CB-8509-857A29D4913E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="9">
   <si>
     <t>LoadEntityTypes</t>
   </si>
@@ -53,6 +53,12 @@
   </si>
   <si>
     <t>Start</t>
+  </si>
+  <si>
+    <t>LoadDetailFields</t>
+  </si>
+  <si>
+    <t>MapDetailsInEntities</t>
   </si>
 </sst>
 </file>
@@ -380,10 +386,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:K35"/>
+  <dimension ref="A2:K61"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H21" sqref="H21:H27"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="J57" sqref="J57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -974,8 +980,8 @@
         <v>5.208333333333333E-3</v>
       </c>
       <c r="K29" s="1">
-        <f>J29/$J$16</f>
-        <v>5.4163846102435491E-3</v>
+        <f>J29/$J$35</f>
+        <v>2.4691358024691357E-2</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.25">
@@ -1011,8 +1017,8 @@
         <v>8.59375E-2</v>
       </c>
       <c r="K30" s="1">
-        <f t="shared" ref="K30:K34" si="12">J30/$J$16</f>
-        <v>8.9370346069018572E-2</v>
+        <f t="shared" ref="K30:K34" si="12">J30/$J$35</f>
+        <v>0.40740740740740738</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.25">
@@ -1049,7 +1055,7 @@
       </c>
       <c r="K31" s="1">
         <f t="shared" si="12"/>
-        <v>1.3540961525608875E-2</v>
+        <v>6.1728395061728399E-2</v>
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.25">
@@ -1086,7 +1092,7 @@
       </c>
       <c r="K32" s="1">
         <f t="shared" si="12"/>
-        <v>1.3540961525608875E-2</v>
+        <v>6.1728395061728399E-2</v>
       </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.25">
@@ -1123,7 +1129,7 @@
       </c>
       <c r="K33" s="1">
         <f t="shared" si="12"/>
-        <v>2.9790115356339519E-2</v>
+        <v>0.13580246913580246</v>
       </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.25">
@@ -1160,7 +1166,7 @@
       </c>
       <c r="K34" s="1">
         <f t="shared" si="12"/>
-        <v>6.7704807628044372E-2</v>
+        <v>0.30864197530864201</v>
       </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.25">
@@ -1169,6 +1175,515 @@
         <v>0.2109375</v>
       </c>
     </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>6</v>
+      </c>
+      <c r="C43">
+        <v>0.3125</v>
+      </c>
+      <c r="D43">
+        <v>0.2421875</v>
+      </c>
+      <c r="E43">
+        <v>-0.4140625</v>
+      </c>
+      <c r="F43">
+        <v>0.46875</v>
+      </c>
+      <c r="G43">
+        <v>-0.234375</v>
+      </c>
+      <c r="H43">
+        <v>0.296875</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>0</v>
+      </c>
+      <c r="C44">
+        <v>0.328125</v>
+      </c>
+      <c r="D44">
+        <v>0.25</v>
+      </c>
+      <c r="E44">
+        <v>-0.40625</v>
+      </c>
+      <c r="F44">
+        <v>0.4765625</v>
+      </c>
+      <c r="G44">
+        <v>-0.2265625</v>
+      </c>
+      <c r="H44">
+        <v>0.3046875</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>1</v>
+      </c>
+      <c r="C45">
+        <v>0.328125</v>
+      </c>
+      <c r="D45">
+        <v>0.25</v>
+      </c>
+      <c r="E45">
+        <v>-0.40625</v>
+      </c>
+      <c r="F45">
+        <v>0.4765625</v>
+      </c>
+      <c r="G45">
+        <v>-0.2265625</v>
+      </c>
+      <c r="H45">
+        <v>0.3046875</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>2</v>
+      </c>
+      <c r="C46">
+        <v>0.34375</v>
+      </c>
+      <c r="D46">
+        <v>0.265625</v>
+      </c>
+      <c r="E46">
+        <v>-0.390625</v>
+      </c>
+      <c r="F46">
+        <v>0.4921875</v>
+      </c>
+      <c r="G46">
+        <v>-0.2109375</v>
+      </c>
+      <c r="H46">
+        <v>0.3203125</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>3</v>
+      </c>
+      <c r="C47">
+        <v>0.34375</v>
+      </c>
+      <c r="D47">
+        <v>0.265625</v>
+      </c>
+      <c r="E47">
+        <v>-0.375</v>
+      </c>
+      <c r="F47">
+        <v>0.5078125</v>
+      </c>
+      <c r="G47">
+        <v>-0.2109375</v>
+      </c>
+      <c r="H47">
+        <v>0.3359375</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>4</v>
+      </c>
+      <c r="C48">
+        <v>0.375</v>
+      </c>
+      <c r="D48">
+        <v>0.296875</v>
+      </c>
+      <c r="E48">
+        <v>-0.359375</v>
+      </c>
+      <c r="F48">
+        <v>0.5234375</v>
+      </c>
+      <c r="G48">
+        <v>-0.1796875</v>
+      </c>
+      <c r="H48">
+        <v>0.3515625</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>5</v>
+      </c>
+      <c r="C49">
+        <v>0.4375</v>
+      </c>
+      <c r="D49">
+        <v>0.359375</v>
+      </c>
+      <c r="E49">
+        <v>-0.296875</v>
+      </c>
+      <c r="F49">
+        <v>0.6015625</v>
+      </c>
+      <c r="G49">
+        <v>-8.59375E-2</v>
+      </c>
+      <c r="H49">
+        <v>0.4140625</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>7</v>
+      </c>
+      <c r="C50">
+        <v>0.453125</v>
+      </c>
+      <c r="D50">
+        <v>0.375</v>
+      </c>
+      <c r="E50">
+        <v>-0.28125</v>
+      </c>
+      <c r="F50">
+        <v>0.6171875</v>
+      </c>
+      <c r="G50">
+        <v>-7.03125E-2</v>
+      </c>
+      <c r="H50">
+        <v>0.4296875</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>8</v>
+      </c>
+      <c r="C51">
+        <v>0.46875</v>
+      </c>
+      <c r="D51">
+        <v>0.390625</v>
+      </c>
+      <c r="E51">
+        <v>-0.265625</v>
+      </c>
+      <c r="F51">
+        <v>0.6328125</v>
+      </c>
+      <c r="G51">
+        <v>-5.46875E-2</v>
+      </c>
+      <c r="H51">
+        <v>0.4453125</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>0</v>
+      </c>
+      <c r="C53">
+        <f>C44-C43</f>
+        <v>1.5625E-2</v>
+      </c>
+      <c r="D53">
+        <f>D44-D43</f>
+        <v>7.8125E-3</v>
+      </c>
+      <c r="E53">
+        <f>E44-E43</f>
+        <v>7.8125E-3</v>
+      </c>
+      <c r="F53">
+        <f t="shared" ref="F53:H53" si="17">F44-F43</f>
+        <v>7.8125E-3</v>
+      </c>
+      <c r="G53">
+        <f t="shared" si="17"/>
+        <v>7.8125E-3</v>
+      </c>
+      <c r="H53">
+        <f t="shared" si="17"/>
+        <v>7.8125E-3</v>
+      </c>
+      <c r="J53">
+        <f>AVERAGE(C53:H53)</f>
+        <v>9.1145833333333339E-3</v>
+      </c>
+      <c r="K53" s="1">
+        <f>J53/$J$61</f>
+        <v>5.7851239669421489E-2</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>1</v>
+      </c>
+      <c r="C54">
+        <f t="shared" ref="C54:H54" si="18">C45-C44</f>
+        <v>0</v>
+      </c>
+      <c r="D54">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="E54">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="F54">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="G54">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="H54">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="J54">
+        <f t="shared" ref="J54:J60" si="19">AVERAGE(C54:H54)</f>
+        <v>0</v>
+      </c>
+      <c r="K54" s="1">
+        <f t="shared" ref="K54:K59" si="20">J54/$J$61</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>2</v>
+      </c>
+      <c r="C55">
+        <f t="shared" ref="C55:H55" si="21">C46-C45</f>
+        <v>1.5625E-2</v>
+      </c>
+      <c r="D55">
+        <f t="shared" si="21"/>
+        <v>1.5625E-2</v>
+      </c>
+      <c r="E55">
+        <f t="shared" si="21"/>
+        <v>1.5625E-2</v>
+      </c>
+      <c r="F55">
+        <f t="shared" si="21"/>
+        <v>1.5625E-2</v>
+      </c>
+      <c r="G55">
+        <f t="shared" si="21"/>
+        <v>1.5625E-2</v>
+      </c>
+      <c r="H55">
+        <f t="shared" si="21"/>
+        <v>1.5625E-2</v>
+      </c>
+      <c r="J55">
+        <f t="shared" si="19"/>
+        <v>1.5625E-2</v>
+      </c>
+      <c r="K55" s="1">
+        <f t="shared" si="20"/>
+        <v>9.9173553719008253E-2</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>3</v>
+      </c>
+      <c r="C56">
+        <f t="shared" ref="C56:H56" si="22">C47-C46</f>
+        <v>0</v>
+      </c>
+      <c r="D56">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="E56">
+        <f t="shared" si="22"/>
+        <v>1.5625E-2</v>
+      </c>
+      <c r="F56">
+        <f t="shared" si="22"/>
+        <v>1.5625E-2</v>
+      </c>
+      <c r="G56">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="H56">
+        <f t="shared" si="22"/>
+        <v>1.5625E-2</v>
+      </c>
+      <c r="J56">
+        <f t="shared" si="19"/>
+        <v>7.8125E-3</v>
+      </c>
+      <c r="K56" s="1">
+        <f t="shared" si="20"/>
+        <v>4.9586776859504127E-2</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>4</v>
+      </c>
+      <c r="C57">
+        <f t="shared" ref="C57:H57" si="23">C48-C47</f>
+        <v>3.125E-2</v>
+      </c>
+      <c r="D57">
+        <f t="shared" si="23"/>
+        <v>3.125E-2</v>
+      </c>
+      <c r="E57">
+        <f t="shared" si="23"/>
+        <v>1.5625E-2</v>
+      </c>
+      <c r="F57">
+        <f t="shared" si="23"/>
+        <v>1.5625E-2</v>
+      </c>
+      <c r="G57">
+        <f t="shared" si="23"/>
+        <v>3.125E-2</v>
+      </c>
+      <c r="H57">
+        <f t="shared" si="23"/>
+        <v>1.5625E-2</v>
+      </c>
+      <c r="J57">
+        <f t="shared" si="19"/>
+        <v>2.34375E-2</v>
+      </c>
+      <c r="K57" s="1">
+        <f t="shared" si="20"/>
+        <v>0.1487603305785124</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>5</v>
+      </c>
+      <c r="C58">
+        <f t="shared" ref="C58:H58" si="24">C49-C48</f>
+        <v>6.25E-2</v>
+      </c>
+      <c r="D58">
+        <f t="shared" si="24"/>
+        <v>6.25E-2</v>
+      </c>
+      <c r="E58">
+        <f t="shared" si="24"/>
+        <v>6.25E-2</v>
+      </c>
+      <c r="F58">
+        <f t="shared" si="24"/>
+        <v>7.8125E-2</v>
+      </c>
+      <c r="G58">
+        <f t="shared" si="24"/>
+        <v>9.375E-2</v>
+      </c>
+      <c r="H58">
+        <f t="shared" si="24"/>
+        <v>6.25E-2</v>
+      </c>
+      <c r="J58">
+        <f t="shared" si="19"/>
+        <v>7.03125E-2</v>
+      </c>
+      <c r="K58" s="1">
+        <f t="shared" si="20"/>
+        <v>0.44628099173553715</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>7</v>
+      </c>
+      <c r="C59">
+        <f t="shared" ref="C59:H59" si="25">C50-C49</f>
+        <v>1.5625E-2</v>
+      </c>
+      <c r="D59">
+        <f t="shared" si="25"/>
+        <v>1.5625E-2</v>
+      </c>
+      <c r="E59">
+        <f t="shared" si="25"/>
+        <v>1.5625E-2</v>
+      </c>
+      <c r="F59">
+        <f t="shared" si="25"/>
+        <v>1.5625E-2</v>
+      </c>
+      <c r="G59">
+        <f t="shared" si="25"/>
+        <v>1.5625E-2</v>
+      </c>
+      <c r="H59">
+        <f t="shared" si="25"/>
+        <v>1.5625E-2</v>
+      </c>
+      <c r="J59">
+        <f t="shared" si="19"/>
+        <v>1.5625E-2</v>
+      </c>
+      <c r="K59" s="1">
+        <f t="shared" si="20"/>
+        <v>9.9173553719008253E-2</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>8</v>
+      </c>
+      <c r="C60">
+        <f t="shared" ref="C60:H60" si="26">C51-C50</f>
+        <v>1.5625E-2</v>
+      </c>
+      <c r="D60">
+        <f t="shared" si="26"/>
+        <v>1.5625E-2</v>
+      </c>
+      <c r="E60">
+        <f t="shared" si="26"/>
+        <v>1.5625E-2</v>
+      </c>
+      <c r="F60">
+        <f t="shared" si="26"/>
+        <v>1.5625E-2</v>
+      </c>
+      <c r="G60">
+        <f t="shared" si="26"/>
+        <v>1.5625E-2</v>
+      </c>
+      <c r="H60">
+        <f t="shared" si="26"/>
+        <v>1.5625E-2</v>
+      </c>
+      <c r="J60">
+        <f t="shared" si="19"/>
+        <v>1.5625E-2</v>
+      </c>
+      <c r="K60" s="1">
+        <f>J60/$J$61</f>
+        <v>9.9173553719008253E-2</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J61">
+        <f>SUM(J53:J60)</f>
+        <v>0.15755208333333334</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
